--- a/Output/April/productivity_agent/productivity_agent_2022-04-01.xlsx
+++ b/Output/April/productivity_agent/productivity_agent_2022-04-01.xlsx
@@ -29762,7 +29762,7 @@
         <v>0</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="BN90">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="BO90">
         <v>0</v>
@@ -29990,10 +29990,10 @@
         <v>0</v>
       </c>
       <c r="CZ90">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DA90">
-        <v>0.3944558078068601</v>
+        <v>0.4016157123414663</v>
       </c>
     </row>
     <row r="91" spans="1:105">
@@ -32932,7 +32932,7 @@
         <v>0</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>0</v>
       </c>
       <c r="BN100">
-        <v>0</v>
+        <v>70.34934497816595</v>
       </c>
       <c r="BO100">
         <v>0</v>
@@ -33160,10 +33160,10 @@
         <v>0</v>
       </c>
       <c r="CZ100">
-        <v>0</v>
+        <v>0.3517467248908297</v>
       </c>
       <c r="DA100">
-        <v>0</v>
+        <v>0.3517467248908297</v>
       </c>
     </row>
     <row r="101" spans="1:105">
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -36365,7 +36365,7 @@
         <v>0.7601078167115903</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -36479,7 +36479,7 @@
         <v>0</v>
       </c>
       <c r="AV111">
-        <v>0</v>
+        <v>80.15444015444015</v>
       </c>
       <c r="AW111">
         <v>0</v>
@@ -36593,7 +36593,7 @@
         <v>0</v>
       </c>
       <c r="CH111">
-        <v>0</v>
+        <v>1.068725868725869</v>
       </c>
       <c r="CI111">
         <v>0</v>
@@ -36650,7 +36650,7 @@
         <v>0</v>
       </c>
       <c r="DA111">
-        <v>0.01699783131117754</v>
+        <v>0.9985581149991207</v>
       </c>
     </row>
     <row r="112" spans="1:105">
@@ -38901,7 +38901,7 @@
         <v>0.832183908045977</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -39015,7 +39015,7 @@
         <v>0</v>
       </c>
       <c r="AV119">
-        <v>0</v>
+        <v>63.60655737704919</v>
       </c>
       <c r="AW119">
         <v>0</v>
@@ -39129,7 +39129,7 @@
         <v>0</v>
       </c>
       <c r="CH119">
-        <v>0</v>
+        <v>0.8480874316939891</v>
       </c>
       <c r="CI119">
         <v>0</v>
@@ -39186,7 +39186,7 @@
         <v>0</v>
       </c>
       <c r="DA119">
-        <v>0.2330768177076564</v>
+        <v>0.6618060994756121</v>
       </c>
     </row>
     <row r="120" spans="1:105">
